--- a/2017/POSF0072_Hint huong dan khach hang su dung.xlsx
+++ b/2017/POSF0072_Hint huong dan khach hang su dung.xlsx
@@ -1306,8 +1306,774 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Phan Thanh Hoàng Vũ</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu chọn loại mặt hàng nào trong danh sách thì  khi thêm mới mặt hàng chương trình sẽ tự động gán mặt hàng cho cửa hàng.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu chọn loại mặt hàng nào trong danh sách thì  khi thêm mới mặt hàng chương trình sẽ tự động gán mặt hàng cho cửa hàng.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu chọn loại mặt hàng nào trong danh sách thì  khi thêm mới mặt hàng chương trình sẽ tự động gán mặt hàng cho cửa hàng.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ
+Nếu cửa hàng không thiết bán hàng theo bảng giá thì phải khai báo cột giá để bán hàng.
+ - Cột giá 1: là giá bán trong mặt hàng
+ - Cột giá 2: là giá bán 2 trong mặt hàng
+ - Cột giá 3: là giá bán 3 trong mặt hàng
+ - Cột giá 4: là giá bán 4 trong mặt hàng
+ - Cột giá 5: là giá bán 5 trong mặt hàng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ
+Nếu cửa hàng không thiết bán hàng theo bảng giá thì phải khai báo cột giá để bán hàng.
+ - Cột giá 1: là giá bán trong mặt hàng
+ - Cột giá 2: là giá bán 2 trong mặt hàng
+ - Cột giá 3: là giá bán 3 trong mặt hàng
+ - Cột giá 4: là giá bán 4 trong mặt hàng
+ - Cột giá 5: là giá bán 5 trong mặt hàng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mục đích phân quyền nhân viên có được đăng nhập vào cửa hàng không.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mục đích phân quyền nhân viên có được đăng nhập vào cửa hàng không.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ
+Nếu cửa hàng không thiết bán hàng theo bảng giá thì phải khai báo cột giá để bán hàng.
+ - Cột giá 1: là giá bán trong mặt hàng
+ - Cột giá 2: là giá bán 2 trong mặt hàng
+ - Cột giá 3: là giá bán 3 trong mặt hàng
+ - Cột giá 4: là giá bán 4 trong mặt hàng
+ - Cột giá 5: là giá bán 5 trong mặt hàng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mục đích phân quyền nhân viên có được đăng nhập vào cửa hàng không.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O56" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O63" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O64" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn đóng để tiến hành lưu thiết lập.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="325">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2235,12 +3001,6 @@
     <t>Nhân viên thuộc cửa hàng</t>
   </si>
   <si>
-    <t>Button [Có]</t>
-  </si>
-  <si>
-    <t>Button [Đóng]</t>
-  </si>
-  <si>
     <t>Mã mặt hàng</t>
   </si>
   <si>
@@ -2398,6 +3158,111 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>00ML000039</t>
+  </si>
+  <si>
+    <t>MessageName</t>
+  </si>
+  <si>
+    <t>Bạn phải nhập vào {0}.</t>
+  </si>
+  <si>
+    <t>Chọn loại mặt hàng  trong danh sách thì  khi thêm mới mặt hàng chương trình sẽ tự động gán mặt hàng cho cửa hàng.</t>
+  </si>
+  <si>
+    <t>POSFML000068</t>
+  </si>
+  <si>
+    <t>POSFML000069</t>
+  </si>
+  <si>
+    <t>POSFML000070</t>
+  </si>
+  <si>
+    <t>POSFML000071</t>
+  </si>
+  <si>
+    <t>POSFML000072</t>
+  </si>
+  <si>
+    <t>POSFML000073</t>
+  </si>
+  <si>
+    <t>POSFML000074</t>
+  </si>
+  <si>
+    <t>POSFML000075</t>
+  </si>
+  <si>
+    <t>POSFML000076</t>
+  </si>
+  <si>
+    <t>POSFML000077</t>
+  </si>
+  <si>
+    <t>POSFML000078</t>
+  </si>
+  <si>
+    <t>POSFML000081</t>
+  </si>
+  <si>
+    <t>POSFML000082</t>
+  </si>
+  <si>
+    <t>Nhấn vào đây để Lưu</t>
+  </si>
+  <si>
+    <t>Button [Lưu và nhập tiếp]</t>
+  </si>
+  <si>
+    <t>Button [Lưu]</t>
+  </si>
+  <si>
+    <t>POSFML000079</t>
+  </si>
+  <si>
+    <t>POSFML000080</t>
+  </si>
+  <si>
+    <t>Khai báo thông tin cửa hàng để in hóa đơn hoặc báo cáo.</t>
+  </si>
+  <si>
+    <t>Bạn phải thêm mới mặt hàng trước khi thực hiện mua, bán hoặc nhập xuất kho.</t>
+  </si>
+  <si>
+    <t>Cửa hàng bán hàng có thực hiện chính sách tích lũy điểm nhận quà, phải khai báo chức năng này</t>
+  </si>
+  <si>
+    <t>Nhập hội viên để theo dõi thông tin bán hàng.</t>
+  </si>
+  <si>
+    <t>Khai báo thẻ hội viên để theo dõi tình hình khuyến mãi bán hàng.</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa mẫu hóa đơn bán lẻ phù hợp theo cửa hàng.</t>
+  </si>
+  <si>
+    <t>Đầu kỳ nếu mặt hàng nào có tồn kho nên khai báo để theo dõi xuất kho bán hàng.</t>
+  </si>
+  <si>
+    <t>Khai báo khu vực để dễ dàng theo vị trí đối với lĩnh vực ăn uống, nhà hàng, coffee.</t>
+  </si>
+  <si>
+    <t>Mỗi khu vực quản lý số bàn khác nhau.</t>
+  </si>
+  <si>
+    <t>Khi bán hàng chương trình sẽ lấy giá bán được thiết lập dựa trên 5 cột giá của mặt.  - Cột giá 1: là giá bán trong mặt hàng  - Cột giá 2: là giá bán 2 trong mặt hàng  - Cột giá 3: là giá bán 3 trong mặt hàng  - Cột giá 4: là giá bán 4 trong mặt hàng  - Cột giá 5: là giá bán 5 trong mặt hàng</t>
+  </si>
+  <si>
+    <t>Nhân viên được chọn sẽ có quyền sử dụng phần mềm.</t>
+  </si>
+  <si>
+    <t>Chọn loại mặt hàng đồ ăn để theo dõi in chế biến</t>
+  </si>
+  <si>
+    <t>Chọn loại mặt hàng thức uống để theo dõi in chế biến</t>
   </si>
 </sst>
 </file>
@@ -2408,7 +3273,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2534,6 +3399,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2870,7 +3761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3231,6 +4122,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3408,8 +4316,6 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3923,10 +4829,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="158"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3951,8 +4857,8 @@
       <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3989,14 +4895,14 @@
       <c r="D4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="152" t="s">
+      <c r="E4" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="113">
@@ -4012,14 +4918,14 @@
       <c r="D5" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="160" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="80">
@@ -4030,12 +4936,12 @@
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="62"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="157"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="164"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="81">
@@ -4046,12 +4952,12 @@
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="147"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="82">
@@ -4062,12 +4968,12 @@
       </c>
       <c r="C8" s="73"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="150"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="157"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="83">
@@ -4078,12 +4984,12 @@
       </c>
       <c r="C9" s="73"/>
       <c r="D9" s="39"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="147"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="84">
@@ -4094,12 +5000,12 @@
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="147"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="85">
@@ -4110,12 +5016,12 @@
       </c>
       <c r="C11" s="73"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="147"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="86">
@@ -4126,12 +5032,12 @@
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="87">
@@ -4142,12 +5048,12 @@
       </c>
       <c r="C13" s="73"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="154"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="88">
@@ -4158,12 +5064,12 @@
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="39">
@@ -4174,12 +5080,12 @@
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="80">
@@ -4190,12 +5096,12 @@
       </c>
       <c r="C16" s="73"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="81">
@@ -4206,12 +5112,12 @@
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="82">
@@ -4222,12 +5128,12 @@
       </c>
       <c r="C18" s="73"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83">
@@ -4238,12 +5144,12 @@
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="84">
@@ -4254,12 +5160,12 @@
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="85">
@@ -4270,12 +5176,12 @@
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="86">
@@ -4286,12 +5192,12 @@
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="87">
@@ -4302,12 +5208,12 @@
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="88">
@@ -4318,12 +5224,12 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="39">
@@ -4334,12 +5240,12 @@
       </c>
       <c r="C25" s="73"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="80">
@@ -4350,12 +5256,12 @@
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="81">
@@ -4366,12 +5272,12 @@
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="82">
@@ -4382,12 +5288,12 @@
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="83">
@@ -4398,12 +5304,12 @@
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="84">
@@ -4414,12 +5320,12 @@
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="85">
@@ -4430,12 +5336,12 @@
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="86">
@@ -4446,12 +5352,12 @@
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="87">
@@ -4462,12 +5368,12 @@
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="88">
@@ -4478,12 +5384,12 @@
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="39">
@@ -4494,12 +5400,12 @@
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="80">
@@ -4510,12 +5416,12 @@
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="81">
@@ -4526,12 +5432,12 @@
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="82">
@@ -4542,12 +5448,12 @@
       </c>
       <c r="C38" s="73"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="83">
@@ -4558,12 +5464,12 @@
       </c>
       <c r="C39" s="73"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="84">
@@ -4574,12 +5480,12 @@
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="85">
@@ -4590,12 +5496,12 @@
       </c>
       <c r="C41" s="73"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="86">
@@ -4606,12 +5512,12 @@
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="39"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -4684,14 +5590,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -4884,11 +5790,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="200" t="s">
+      <c r="E27" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="201"/>
-      <c r="G27" s="202"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="209"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
@@ -5285,10 +6191,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="158"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5316,8 +6222,8 @@
       <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5345,20 +6251,20 @@
       <c r="J2" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="158" t="s">
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="159"/>
+      <c r="J4" s="166"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41"/>
@@ -5369,10 +6275,10 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
-      <c r="I5" s="167" t="s">
+      <c r="I5" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="168"/>
+      <c r="J5" s="175"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41"/>
@@ -5383,8 +6289,8 @@
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="44"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="177"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41"/>
@@ -5395,8 +6301,8 @@
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="44"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="177"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41"/>
@@ -5407,8 +6313,8 @@
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
       <c r="H8" s="44"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="177"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41"/>
@@ -5419,8 +6325,8 @@
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="H9" s="44"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="170"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="177"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
@@ -5431,8 +6337,8 @@
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="44"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="179"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="41"/>
@@ -5443,10 +6349,10 @@
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="45"/>
-      <c r="I11" s="158" t="s">
+      <c r="I11" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="159"/>
+      <c r="J11" s="166"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
@@ -5457,10 +6363,10 @@
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="44"/>
-      <c r="I12" s="161" t="s">
+      <c r="I12" s="168" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="162"/>
+      <c r="J12" s="169"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41"/>
@@ -5471,8 +6377,8 @@
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="44"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="164"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="171"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
@@ -5483,8 +6389,8 @@
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="44"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="164"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="171"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
@@ -5495,8 +6401,8 @@
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="44"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="164"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="171"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
@@ -5507,8 +6413,8 @@
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="44"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="164"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
@@ -5519,8 +6425,8 @@
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="44"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="164"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
@@ -5531,8 +6437,8 @@
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="164"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
@@ -5543,8 +6449,8 @@
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="44"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="164"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
@@ -5555,8 +6461,8 @@
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
       <c r="H20" s="44"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="164"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="171"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="41"/>
@@ -5567,8 +6473,8 @@
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
       <c r="H21" s="44"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="164"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="41"/>
@@ -5579,8 +6485,8 @@
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="44"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="41"/>
@@ -5591,8 +6497,8 @@
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="44"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="171"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="41"/>
@@ -5603,8 +6509,8 @@
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="44"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="164"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="41"/>
@@ -5615,8 +6521,8 @@
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="44"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="41"/>
@@ -5627,8 +6533,8 @@
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
       <c r="H26" s="44"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="164"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="41"/>
@@ -5639,8 +6545,8 @@
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="44"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="41"/>
@@ -5651,8 +6557,8 @@
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
       <c r="H28" s="44"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="164"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="41"/>
@@ -5663,8 +6569,8 @@
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="44"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="164"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="171"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="41"/>
@@ -5675,8 +6581,8 @@
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
       <c r="H30" s="44"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="164"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="171"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="41"/>
@@ -5687,8 +6593,8 @@
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="44"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="164"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="41"/>
@@ -5699,8 +6605,8 @@
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
       <c r="H32" s="44"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="171"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41"/>
@@ -5711,8 +6617,8 @@
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
       <c r="H33" s="44"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="164"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="171"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="41"/>
@@ -5723,8 +6629,8 @@
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
       <c r="H34" s="44"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="164"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="171"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="41"/>
@@ -5735,8 +6641,8 @@
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
       <c r="H35" s="44"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="164"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="171"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="41"/>
@@ -5747,8 +6653,8 @@
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
       <c r="H36" s="44"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="171"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="41"/>
@@ -5759,8 +6665,8 @@
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
       <c r="H37" s="44"/>
-      <c r="I37" s="163"/>
-      <c r="J37" s="164"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="171"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="41"/>
@@ -5771,8 +6677,8 @@
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
       <c r="H38" s="44"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="164"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="171"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="41"/>
@@ -5783,8 +6689,8 @@
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
       <c r="H39" s="44"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="164"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="41"/>
@@ -5795,8 +6701,8 @@
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
       <c r="H40" s="44"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="164"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="171"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="41"/>
@@ -5807,8 +6713,8 @@
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
       <c r="H41" s="44"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="164"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="171"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="41"/>
@@ -5819,8 +6725,8 @@
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
       <c r="H42" s="44"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="164"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="171"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="46"/>
@@ -5831,8 +6737,8 @@
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
       <c r="H43" s="48"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="166"/>
+      <c r="I43" s="172"/>
+      <c r="J43" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5888,11 +6794,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
       <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5900,15 +6806,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP 9.0</v>
       </c>
-      <c r="F1" s="173" t="s">
+      <c r="F1" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="174"/>
-      <c r="H1" s="175" t="str">
+      <c r="G1" s="181"/>
+      <c r="H1" s="182" t="str">
         <f>'Update History'!F1</f>
         <v>POSF0072</v>
       </c>
-      <c r="I1" s="176"/>
+      <c r="I1" s="183"/>
       <c r="J1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5922,9 +6828,9 @@
       <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
       <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5932,15 +6838,15 @@
         <f>'Update History'!D2</f>
         <v>POS</v>
       </c>
-      <c r="F2" s="173" t="s">
+      <c r="F2" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="174"/>
-      <c r="H2" s="175" t="str">
+      <c r="G2" s="181"/>
+      <c r="H2" s="182" t="str">
         <f>'Update History'!F2</f>
         <v>Hướng dẫn sử dụng (hint)</v>
       </c>
-      <c r="I2" s="176"/>
+      <c r="I2" s="183"/>
       <c r="J2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6526,7 +7432,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -6558,7 +7464,7 @@
       <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180"/>
+      <c r="A2" s="187"/>
       <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6600,15 +7506,15 @@
       <c r="D4" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151" t="s">
+      <c r="F4" s="158"/>
+      <c r="G4" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
     </row>
     <row r="5" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -6617,11 +7523,11 @@
       <c r="B5" s="112"/>
       <c r="C5" s="33"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="183"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="190"/>
     </row>
     <row r="6" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -6630,11 +7536,11 @@
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="183"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -6643,11 +7549,11 @@
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="32"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="183"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -6656,11 +7562,11 @@
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="32"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="183"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="190"/>
     </row>
     <row r="9" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -6669,11 +7575,11 @@
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="32"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="183"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="190"/>
     </row>
     <row r="10" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -6682,11 +7588,11 @@
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="183"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="190"/>
     </row>
     <row r="11" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -6695,11 +7601,11 @@
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="32"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="183"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="190"/>
     </row>
     <row r="12" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -6708,11 +7614,11 @@
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="183"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="190"/>
     </row>
     <row r="13" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -6721,11 +7627,11 @@
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="183"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -6734,11 +7640,11 @@
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="183"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="190"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -6818,24 +7724,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="187" t="str">
+      <c r="J1" s="194" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP 9.0</v>
       </c>
-      <c r="K1" s="187"/>
+      <c r="K1" s="194"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -6860,22 +7766,22 @@
       <c r="U1" s="51"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="187" t="str">
+      <c r="J2" s="194" t="str">
         <f>'Update History'!D2</f>
         <v>POS</v>
       </c>
-      <c r="K2" s="187"/>
+      <c r="K2" s="194"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -6930,12 +7836,12 @@
       <c r="J4" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="158" t="s">
+      <c r="K4" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="159"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="166"/>
       <c r="O4" s="38" t="s">
         <v>56</v>
       </c>
@@ -6971,12 +7877,12 @@
       <c r="J5" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="188" t="s">
+      <c r="K5" s="195" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="189"/>
-      <c r="M5" s="189"/>
-      <c r="N5" s="190"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="197"/>
       <c r="O5" s="136" t="s">
         <v>213</v>
       </c>
@@ -7010,12 +7916,12 @@
       <c r="J6" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="K6" s="188" t="s">
+      <c r="K6" s="195" t="s">
         <v>211</v>
       </c>
-      <c r="L6" s="189"/>
-      <c r="M6" s="189"/>
-      <c r="N6" s="190"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="197"/>
       <c r="O6" s="136" t="s">
         <v>215</v>
       </c>
@@ -7051,12 +7957,12 @@
       <c r="J7" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="K7" s="184" t="s">
+      <c r="K7" s="191" t="s">
         <v>217</v>
       </c>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="186"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="193"/>
       <c r="O7" s="136" t="s">
         <v>218</v>
       </c>
@@ -7088,12 +7994,12 @@
       <c r="J8" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="184" t="s">
+      <c r="K8" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="186"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="192"/>
+      <c r="N8" s="193"/>
       <c r="O8" s="136" t="s">
         <v>223</v>
       </c>
@@ -7166,10 +8072,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="158"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7197,8 +8103,8 @@
       <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7480,77 +8386,77 @@
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="69"/>
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="194"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="200"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="201"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="41"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="194"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="200"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="201"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="41"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="201"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="41"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="201"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="41"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="201"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="41"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="200"/>
+      <c r="D31" s="200"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="201"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="69" t="s">
@@ -7812,37 +8718,37 @@
       <c r="J52" s="45"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="191"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
-      <c r="H53" s="191"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="192"/>
+      <c r="B53" s="198"/>
+      <c r="C53" s="198"/>
+      <c r="D53" s="198"/>
+      <c r="E53" s="198"/>
+      <c r="F53" s="198"/>
+      <c r="G53" s="198"/>
+      <c r="H53" s="198"/>
+      <c r="I53" s="198"/>
+      <c r="J53" s="199"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="191"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="191"/>
-      <c r="H54" s="191"/>
-      <c r="I54" s="191"/>
-      <c r="J54" s="192"/>
+      <c r="B54" s="198"/>
+      <c r="C54" s="198"/>
+      <c r="D54" s="198"/>
+      <c r="E54" s="198"/>
+      <c r="F54" s="198"/>
+      <c r="G54" s="198"/>
+      <c r="H54" s="198"/>
+      <c r="I54" s="198"/>
+      <c r="J54" s="199"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="191"/>
-      <c r="C55" s="191"/>
-      <c r="D55" s="191"/>
-      <c r="E55" s="191"/>
-      <c r="F55" s="191"/>
-      <c r="G55" s="191"/>
-      <c r="H55" s="191"/>
-      <c r="I55" s="191"/>
-      <c r="J55" s="192"/>
+      <c r="B55" s="198"/>
+      <c r="C55" s="198"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="198"/>
+      <c r="F55" s="198"/>
+      <c r="G55" s="198"/>
+      <c r="H55" s="198"/>
+      <c r="I55" s="198"/>
+      <c r="J55" s="199"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="74"/>
@@ -8311,10 +9217,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="158"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -8342,8 +9248,8 @@
       <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -8489,50 +9395,53 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="137" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="138" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="138" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="138" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="138" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="138" customWidth="1"/>
     <col min="5" max="5" width="5" style="138" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="138" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="138" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="137" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="138" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="138" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="138" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="138" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="138" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="138"/>
+    <col min="7" max="7" width="16.140625" style="150" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="138" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="137" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="138" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="138" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="138" customWidth="1"/>
+    <col min="13" max="13" width="5" style="138" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="138" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="138" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="138"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="H1" s="198" t="s">
-        <v>290</v>
-      </c>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="202" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="146"/>
+      <c r="I1" s="205" t="s">
+        <v>288</v>
+      </c>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="205"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>229</v>
       </c>
@@ -8540,37 +9449,40 @@
         <v>192</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D2" s="140" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F2" s="140" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="139" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="147" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="140" t="s">
+      <c r="J2" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="140" t="s">
-        <v>291</v>
-      </c>
       <c r="K2" s="140" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="L2" s="140" t="s">
-        <v>270</v>
-      </c>
       <c r="M2" s="140" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="N2" s="140" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="142" t="s">
         <v>228</v>
       </c>
@@ -8580,33 +9492,40 @@
       <c r="C3" s="140">
         <v>0</v>
       </c>
-      <c r="D3" s="203"/>
+      <c r="D3" s="144" t="s">
+        <v>294</v>
+      </c>
       <c r="E3" s="140">
         <v>1</v>
       </c>
       <c r="F3" s="140">
         <v>0</v>
       </c>
-      <c r="H3" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="I3" s="140">
-        <v>0</v>
+      <c r="G3" s="148" t="s">
+        <v>312</v>
+      </c>
+      <c r="I3" s="142" t="s">
+        <v>275</v>
       </c>
       <c r="J3" s="140">
         <v>0</v>
       </c>
-      <c r="K3" s="203"/>
-      <c r="L3" s="140">
-        <v>1</v>
+      <c r="K3" s="140">
+        <v>0</v>
+      </c>
+      <c r="L3" s="144" t="s">
+        <v>294</v>
       </c>
       <c r="M3" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" s="140">
         <v>0</v>
@@ -8614,33 +9533,43 @@
       <c r="C4" s="140">
         <v>0</v>
       </c>
-      <c r="D4" s="203"/>
+      <c r="D4" s="144" t="s">
+        <v>295</v>
+      </c>
       <c r="E4" s="140">
         <v>2</v>
       </c>
       <c r="F4" s="140">
         <v>0</v>
       </c>
-      <c r="H4" s="142" t="s">
-        <v>280</v>
-      </c>
-      <c r="I4" s="140">
-        <v>0</v>
+      <c r="G4" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" s="142" t="s">
+        <v>278</v>
       </c>
       <c r="J4" s="140">
         <v>0</v>
       </c>
-      <c r="K4" s="203"/>
-      <c r="L4" s="140">
+      <c r="K4" s="140">
+        <v>0</v>
+      </c>
+      <c r="L4" s="144" t="s">
+        <v>301</v>
+      </c>
+      <c r="M4" s="140">
         <v>2</v>
       </c>
-      <c r="M4" s="140">
+      <c r="N4" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="138" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5" s="140">
         <v>0</v>
@@ -8648,33 +9577,43 @@
       <c r="C5" s="140">
         <v>0</v>
       </c>
-      <c r="D5" s="203"/>
+      <c r="D5" s="144" t="s">
+        <v>296</v>
+      </c>
       <c r="E5" s="140">
         <v>3</v>
       </c>
       <c r="F5" s="140">
         <v>0</v>
       </c>
-      <c r="H5" s="142" t="s">
-        <v>283</v>
-      </c>
-      <c r="I5" s="140">
-        <v>0</v>
+      <c r="G5" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" s="142" t="s">
+        <v>281</v>
       </c>
       <c r="J5" s="140">
         <v>0</v>
       </c>
-      <c r="K5" s="203"/>
-      <c r="L5" s="140">
+      <c r="K5" s="140">
+        <v>0</v>
+      </c>
+      <c r="L5" s="144" t="s">
+        <v>302</v>
+      </c>
+      <c r="M5" s="140">
         <v>3</v>
       </c>
-      <c r="M5" s="140">
+      <c r="N5" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" s="138" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B6" s="140">
         <v>0</v>
@@ -8682,33 +9621,40 @@
       <c r="C6" s="140">
         <v>0</v>
       </c>
-      <c r="D6" s="203"/>
+      <c r="D6" s="144" t="s">
+        <v>297</v>
+      </c>
       <c r="E6" s="140">
         <v>4</v>
       </c>
       <c r="F6" s="140">
         <v>0</v>
       </c>
-      <c r="H6" s="142" t="s">
-        <v>272</v>
-      </c>
-      <c r="I6" s="140">
-        <v>0</v>
+      <c r="G6" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="I6" s="142" t="s">
+        <v>270</v>
       </c>
       <c r="J6" s="140">
         <v>0</v>
       </c>
-      <c r="K6" s="203"/>
-      <c r="L6" s="140">
+      <c r="K6" s="140">
+        <v>0</v>
+      </c>
+      <c r="L6" s="144" t="s">
+        <v>295</v>
+      </c>
+      <c r="M6" s="140">
         <v>4</v>
       </c>
-      <c r="M6" s="140">
+      <c r="N6" s="140">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B7" s="140">
         <v>0</v>
@@ -8716,33 +9662,40 @@
       <c r="C7" s="140">
         <v>0</v>
       </c>
-      <c r="D7" s="203"/>
+      <c r="D7" s="144" t="s">
+        <v>298</v>
+      </c>
       <c r="E7" s="140">
         <v>5</v>
       </c>
       <c r="F7" s="140">
         <v>0</v>
       </c>
-      <c r="H7" s="142" t="s">
-        <v>273</v>
-      </c>
-      <c r="I7" s="140">
-        <v>0</v>
+      <c r="G7" s="148" t="s">
+        <v>316</v>
+      </c>
+      <c r="I7" s="142" t="s">
+        <v>271</v>
       </c>
       <c r="J7" s="140">
         <v>0</v>
       </c>
-      <c r="K7" s="203"/>
-      <c r="L7" s="140">
+      <c r="K7" s="140">
+        <v>0</v>
+      </c>
+      <c r="L7" s="144" t="s">
+        <v>296</v>
+      </c>
+      <c r="M7" s="140">
         <v>5</v>
       </c>
-      <c r="M7" s="140">
+      <c r="N7" s="140">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="143" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B8" s="140">
         <v>0</v>
@@ -8750,33 +9703,40 @@
       <c r="C8" s="140">
         <v>0</v>
       </c>
-      <c r="D8" s="203"/>
+      <c r="D8" s="144" t="s">
+        <v>299</v>
+      </c>
       <c r="E8" s="140">
         <v>6</v>
       </c>
       <c r="F8" s="140">
         <v>0</v>
       </c>
-      <c r="H8" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="I8" s="140">
-        <v>0</v>
+      <c r="G8" s="148" t="s">
+        <v>317</v>
+      </c>
+      <c r="I8" s="142" t="s">
+        <v>272</v>
       </c>
       <c r="J8" s="140">
         <v>0</v>
       </c>
-      <c r="K8" s="203"/>
-      <c r="L8" s="140">
+      <c r="K8" s="140">
+        <v>0</v>
+      </c>
+      <c r="L8" s="144" t="s">
+        <v>297</v>
+      </c>
+      <c r="M8" s="140">
         <v>6</v>
       </c>
-      <c r="M8" s="140">
+      <c r="N8" s="140">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B9" s="140">
         <v>0</v>
@@ -8784,1800 +9744,2031 @@
       <c r="C9" s="140">
         <v>0</v>
       </c>
-      <c r="D9" s="203"/>
+      <c r="D9" s="144" t="s">
+        <v>300</v>
+      </c>
       <c r="E9" s="140">
         <v>7</v>
       </c>
       <c r="F9" s="140">
         <v>0</v>
       </c>
-      <c r="H9" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="I9" s="140">
-        <v>0</v>
+      <c r="G9" s="148" t="s">
+        <v>318</v>
+      </c>
+      <c r="I9" s="142" t="s">
+        <v>273</v>
       </c>
       <c r="J9" s="140">
         <v>0</v>
       </c>
-      <c r="K9" s="203"/>
-      <c r="L9" s="140">
+      <c r="K9" s="140">
+        <v>0</v>
+      </c>
+      <c r="L9" s="144" t="s">
+        <v>298</v>
+      </c>
+      <c r="M9" s="140">
         <v>7</v>
       </c>
-      <c r="M9" s="140">
+      <c r="N9" s="140">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="142"/>
       <c r="B10" s="140"/>
       <c r="C10" s="140"/>
       <c r="D10" s="140"/>
       <c r="E10" s="140"/>
       <c r="F10" s="140"/>
-      <c r="H10" s="143" t="s">
-        <v>262</v>
-      </c>
-      <c r="I10" s="140">
-        <v>0</v>
+      <c r="G10" s="149"/>
+      <c r="I10" s="143" t="s">
+        <v>260</v>
       </c>
       <c r="J10" s="140">
         <v>0</v>
       </c>
-      <c r="K10" s="203"/>
-      <c r="L10" s="140">
+      <c r="K10" s="140">
+        <v>0</v>
+      </c>
+      <c r="L10" s="144" t="s">
+        <v>299</v>
+      </c>
+      <c r="M10" s="140">
         <v>8</v>
       </c>
-      <c r="M10" s="140">
+      <c r="N10" s="140">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="142"/>
       <c r="B11" s="140"/>
       <c r="C11" s="140"/>
       <c r="D11" s="140"/>
       <c r="E11" s="140"/>
       <c r="F11" s="140"/>
-      <c r="H11" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="I11" s="140">
-        <v>0</v>
+      <c r="G11" s="149"/>
+      <c r="I11" s="142" t="s">
+        <v>261</v>
       </c>
       <c r="J11" s="140">
         <v>0</v>
       </c>
-      <c r="K11" s="203"/>
-      <c r="L11" s="140">
+      <c r="K11" s="140">
+        <v>0</v>
+      </c>
+      <c r="L11" s="144" t="s">
+        <v>300</v>
+      </c>
+      <c r="M11" s="140">
         <v>9</v>
       </c>
-      <c r="M11" s="140">
+      <c r="N11" s="140">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="195" t="s">
-        <v>287</v>
-      </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="197"/>
-      <c r="H15" s="198" t="s">
-        <v>288</v>
-      </c>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="202" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="203"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="146"/>
+      <c r="I15" s="205" t="s">
+        <v>286</v>
+      </c>
+      <c r="J15" s="205"/>
+      <c r="K15" s="205"/>
+      <c r="L15" s="205"/>
+      <c r="M15" s="205"/>
+      <c r="N15" s="205"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
         <v>229</v>
       </c>
       <c r="B16" s="140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C16" s="140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D16" s="140" t="s">
         <v>191</v>
       </c>
       <c r="E16" s="140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F16" s="140" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" s="139" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="147" t="s">
+        <v>291</v>
+      </c>
+      <c r="I16" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="I16" s="140" t="s">
+      <c r="J16" s="140" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="140" t="s">
+        <v>274</v>
+      </c>
+      <c r="L16" s="140" t="s">
+        <v>191</v>
+      </c>
+      <c r="M16" s="140" t="s">
+        <v>268</v>
+      </c>
+      <c r="N16" s="140" t="s">
         <v>269</v>
       </c>
-      <c r="J16" s="140" t="s">
-        <v>276</v>
-      </c>
-      <c r="K16" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="L16" s="140" t="s">
-        <v>270</v>
-      </c>
-      <c r="M16" s="140" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="147" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="142" t="s">
         <v>228</v>
       </c>
       <c r="B17" s="140" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E17" s="140">
         <v>1</v>
       </c>
       <c r="F17" s="140">
         <v>0</v>
       </c>
-      <c r="H17" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="I17" s="140" t="s">
+      <c r="G17" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I17" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="J17" s="140" t="s">
         <v>230</v>
       </c>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="140">
-        <v>1</v>
-      </c>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
       <c r="M17" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="140">
+        <v>1</v>
+      </c>
+      <c r="O17" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="142" t="s">
         <v>228</v>
       </c>
       <c r="B18" s="140" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E18" s="140">
         <v>2</v>
       </c>
       <c r="F18" s="140">
         <v>0</v>
       </c>
-      <c r="H18" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="I18" s="140" t="s">
+      <c r="G18" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I18" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="J18" s="140" t="s">
         <v>231</v>
       </c>
-      <c r="J18" s="203"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="140">
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="140">
         <v>2</v>
       </c>
-      <c r="M18" s="140">
+      <c r="N18" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="142" t="s">
         <v>228</v>
       </c>
       <c r="B19" s="140" t="s">
         <v>232</v>
       </c>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E19" s="140">
         <v>3</v>
       </c>
       <c r="F19" s="140">
         <v>0</v>
       </c>
-      <c r="H19" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="I19" s="140" t="s">
+      <c r="G19" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I19" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="J19" s="140" t="s">
         <v>232</v>
       </c>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="140">
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="140">
         <v>3</v>
       </c>
-      <c r="M19" s="140">
+      <c r="N19" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="142" t="s">
         <v>228</v>
       </c>
       <c r="B20" s="140" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E20" s="140">
         <v>4</v>
       </c>
       <c r="F20" s="140">
         <v>0</v>
       </c>
-      <c r="H20" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="I20" s="140" t="s">
+      <c r="G20" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I20" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="J20" s="140" t="s">
         <v>233</v>
       </c>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="140">
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="140">
         <v>4</v>
       </c>
-      <c r="M20" s="140">
+      <c r="N20" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="142" t="s">
         <v>228</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="203"/>
-      <c r="D21" s="203"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144" t="s">
+        <v>303</v>
+      </c>
       <c r="E21" s="140">
         <v>5</v>
       </c>
       <c r="F21" s="140">
         <v>0</v>
       </c>
-      <c r="H21" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="I21" s="140" t="s">
+      <c r="G21" s="148" t="s">
+        <v>293</v>
+      </c>
+      <c r="I21" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="J21" s="140" t="s">
         <v>234</v>
       </c>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="140">
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="140">
         <v>5</v>
       </c>
-      <c r="M21" s="140">
+      <c r="N21" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" s="144" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="142" t="s">
         <v>228</v>
       </c>
       <c r="B22" s="140" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144" t="s">
+        <v>304</v>
+      </c>
       <c r="E22" s="140">
         <v>6</v>
       </c>
       <c r="F22" s="140">
         <v>0</v>
       </c>
-      <c r="H22" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="I22" s="140" t="s">
-        <v>278</v>
-      </c>
-      <c r="J22" s="203"/>
-      <c r="K22" s="203"/>
-      <c r="L22" s="140">
+      <c r="G22" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="I22" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" s="140" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="140">
         <v>6</v>
       </c>
-      <c r="M22" s="140">
+      <c r="N22" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" s="144" t="s">
+        <v>305</v>
+      </c>
+      <c r="P22" s="138" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="142" t="s">
         <v>228</v>
       </c>
       <c r="B23" s="140" t="s">
         <v>236</v>
       </c>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144" t="s">
+        <v>310</v>
+      </c>
       <c r="E23" s="140">
         <v>7</v>
       </c>
       <c r="F23" s="140">
         <v>0</v>
       </c>
-      <c r="H23" s="142" t="s">
+      <c r="G23" s="148" t="s">
+        <v>322</v>
+      </c>
+      <c r="I23" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="J23" s="140" t="s">
         <v>277</v>
       </c>
-      <c r="I23" s="140" t="s">
-        <v>279</v>
-      </c>
-      <c r="J23" s="203"/>
-      <c r="K23" s="203"/>
-      <c r="L23" s="140">
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="140">
         <v>7</v>
       </c>
-      <c r="M23" s="140">
+      <c r="N23" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23" s="144" t="s">
+        <v>306</v>
+      </c>
+      <c r="P23" s="138" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="142" t="s">
         <v>228</v>
       </c>
       <c r="B24" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" s="203"/>
-      <c r="D24" s="203"/>
+        <v>308</v>
+      </c>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144" t="s">
+        <v>311</v>
+      </c>
       <c r="E24" s="140">
         <v>8</v>
       </c>
       <c r="F24" s="140">
         <v>0</v>
       </c>
-      <c r="H24" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" s="140" t="s">
+      <c r="G24" s="148" t="s">
+        <v>307</v>
+      </c>
+      <c r="I24" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="J24" s="140" t="s">
         <v>235</v>
       </c>
-      <c r="J24" s="203"/>
-      <c r="K24" s="203"/>
-      <c r="L24" s="140">
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="140">
         <v>8</v>
       </c>
-      <c r="M24" s="140">
+      <c r="N24" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O24" s="144" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="142" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="B25" s="140" t="s">
         <v>237</v>
       </c>
-      <c r="C25" s="203"/>
-      <c r="D25" s="203"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E25" s="140">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F25" s="140">
         <v>0</v>
       </c>
-      <c r="H25" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" s="140" t="s">
+      <c r="G25" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I25" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="J25" s="140" t="s">
         <v>236</v>
       </c>
-      <c r="J25" s="203"/>
-      <c r="K25" s="203"/>
-      <c r="L25" s="140">
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="140">
         <v>9</v>
       </c>
-      <c r="M25" s="140">
+      <c r="N25" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25" s="144" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B26" s="140" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
+        <v>238</v>
+      </c>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E26" s="140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="140">
         <v>0</v>
       </c>
-      <c r="H26" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="J26" s="203"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="140">
-        <v>10</v>
-      </c>
+      <c r="G26" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I26" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="J26" s="140" t="s">
+        <v>308</v>
+      </c>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
       <c r="M26" s="140">
+        <v>11</v>
+      </c>
+      <c r="N26" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O26" s="144" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B27" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
+        <v>239</v>
+      </c>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E27" s="140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="140">
         <v>0</v>
       </c>
-      <c r="H27" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="J27" s="203"/>
-      <c r="K27" s="203"/>
-      <c r="L27" s="140">
-        <v>11</v>
-      </c>
+      <c r="G27" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I27" s="142" t="s">
+        <v>278</v>
+      </c>
+      <c r="J27" s="140" t="s">
+        <v>279</v>
+      </c>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
       <c r="M27" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="140">
+        <v>1</v>
+      </c>
+      <c r="O27" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B28" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="C28" s="203"/>
-      <c r="D28" s="203"/>
+        <v>240</v>
+      </c>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E28" s="140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="140">
         <v>0</v>
       </c>
-      <c r="H28" s="142" t="s">
+      <c r="G28" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I28" s="142" t="s">
+        <v>278</v>
+      </c>
+      <c r="J28" s="140" t="s">
         <v>280</v>
       </c>
-      <c r="I28" s="140" t="s">
-        <v>281</v>
-      </c>
-      <c r="J28" s="203"/>
-      <c r="K28" s="203"/>
-      <c r="L28" s="140">
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="140">
+        <v>2</v>
+      </c>
+      <c r="N28" s="140">
         <v>1</v>
       </c>
-      <c r="M28" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O28" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B29" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
+        <v>241</v>
+      </c>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E29" s="140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="140">
         <v>0</v>
       </c>
-      <c r="H29" s="142" t="s">
-        <v>280</v>
-      </c>
-      <c r="I29" s="140" t="s">
-        <v>282</v>
-      </c>
-      <c r="J29" s="203"/>
-      <c r="K29" s="203"/>
-      <c r="L29" s="140">
-        <v>2</v>
-      </c>
+      <c r="G29" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I29" s="142" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" s="140" t="s">
+        <v>308</v>
+      </c>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
       <c r="M29" s="140">
+        <v>4</v>
+      </c>
+      <c r="N29" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29" s="144" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B30" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" s="203"/>
-      <c r="D30" s="203"/>
+        <v>242</v>
+      </c>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E30" s="140">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="140">
         <v>0</v>
       </c>
-      <c r="H30" s="142" t="s">
-        <v>280</v>
-      </c>
-      <c r="I30" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="J30" s="203"/>
-      <c r="K30" s="203"/>
-      <c r="L30" s="140">
-        <v>3</v>
-      </c>
+      <c r="G30" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I30" s="142" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" s="140" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
       <c r="M30" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="140">
+        <v>1</v>
+      </c>
+      <c r="O30" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B31" s="140" t="s">
-        <v>244</v>
-      </c>
-      <c r="C31" s="203"/>
-      <c r="D31" s="203"/>
+        <v>243</v>
+      </c>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E31" s="140">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F31" s="140">
         <v>0</v>
       </c>
-      <c r="H31" s="142" t="s">
-        <v>280</v>
-      </c>
-      <c r="I31" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="J31" s="203"/>
-      <c r="K31" s="203"/>
-      <c r="L31" s="140">
-        <v>4</v>
-      </c>
+      <c r="G31" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I31" s="142" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" s="140" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
       <c r="M31" s="140">
+        <v>2</v>
+      </c>
+      <c r="N31" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O31" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B32" s="140" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="203"/>
-      <c r="D32" s="203"/>
+        <v>244</v>
+      </c>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E32" s="140">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32" s="140">
         <v>0</v>
       </c>
-      <c r="H32" s="142" t="s">
+      <c r="G32" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I32" s="142" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" s="140" t="s">
         <v>283</v>
       </c>
-      <c r="I32" s="140" t="s">
-        <v>281</v>
-      </c>
-      <c r="J32" s="203"/>
-      <c r="K32" s="203"/>
-      <c r="L32" s="140">
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="140">
+        <v>3</v>
+      </c>
+      <c r="N32" s="140">
         <v>1</v>
       </c>
-      <c r="M32" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O32" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B33" s="140" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" s="203"/>
-      <c r="D33" s="203"/>
+        <v>308</v>
+      </c>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144" t="s">
+        <v>311</v>
+      </c>
       <c r="E33" s="140">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33" s="140">
         <v>0</v>
       </c>
-      <c r="H33" s="142" t="s">
-        <v>283</v>
-      </c>
-      <c r="I33" s="140" t="s">
-        <v>284</v>
-      </c>
-      <c r="J33" s="203"/>
-      <c r="K33" s="203"/>
-      <c r="L33" s="140">
-        <v>2</v>
-      </c>
+      <c r="G33" s="148" t="s">
+        <v>307</v>
+      </c>
+      <c r="I33" s="142" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" s="140" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
       <c r="M33" s="140">
+        <v>5</v>
+      </c>
+      <c r="N33" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O33" s="144" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="142" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B34" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" s="203"/>
-      <c r="D34" s="203"/>
+        <v>245</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E34" s="140">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F34" s="140">
         <v>0</v>
       </c>
-      <c r="H34" s="142" t="s">
-        <v>283</v>
-      </c>
-      <c r="I34" s="140" t="s">
-        <v>285</v>
-      </c>
-      <c r="J34" s="203"/>
-      <c r="K34" s="203"/>
-      <c r="L34" s="140">
-        <v>3</v>
-      </c>
+      <c r="G34" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I34" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" s="144"/>
+      <c r="L34" s="144"/>
       <c r="M34" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="140">
+        <v>1</v>
+      </c>
+      <c r="O34" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="142" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="C35" s="203"/>
-      <c r="D35" s="203"/>
+        <v>246</v>
+      </c>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E35" s="140">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F35" s="140">
         <v>0</v>
       </c>
-      <c r="H35" s="142" t="s">
-        <v>283</v>
-      </c>
-      <c r="I35" s="140" t="s">
+      <c r="G35" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I35" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="140" t="s">
         <v>238</v>
       </c>
-      <c r="J35" s="203"/>
-      <c r="K35" s="203"/>
-      <c r="L35" s="140">
-        <v>4</v>
-      </c>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
       <c r="M35" s="140">
+        <v>2</v>
+      </c>
+      <c r="N35" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O35" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B36" s="140" t="s">
         <v>247</v>
       </c>
-      <c r="C36" s="203"/>
-      <c r="D36" s="203"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E36" s="140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="140">
         <v>0</v>
       </c>
-      <c r="H36" s="142" t="s">
-        <v>283</v>
-      </c>
-      <c r="I36" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="J36" s="203"/>
-      <c r="K36" s="203"/>
-      <c r="L36" s="140">
-        <v>5</v>
-      </c>
+      <c r="G36" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I36" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
       <c r="M36" s="140">
+        <v>3</v>
+      </c>
+      <c r="N36" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O36" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B37" s="140" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="203"/>
-      <c r="D37" s="203"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E37" s="140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" s="140">
         <v>0</v>
       </c>
-      <c r="H37" s="142" t="s">
-        <v>272</v>
-      </c>
-      <c r="I37" s="140" t="s">
-        <v>239</v>
-      </c>
-      <c r="J37" s="203"/>
-      <c r="K37" s="203"/>
-      <c r="L37" s="140">
+      <c r="G37" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I37" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" s="140" t="s">
+        <v>240</v>
+      </c>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="140">
+        <v>4</v>
+      </c>
+      <c r="N37" s="140">
         <v>1</v>
       </c>
-      <c r="M37" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="142" t="s">
-        <v>273</v>
-      </c>
-      <c r="B38" s="140" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="141" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="203"/>
-      <c r="D38" s="203"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="144" t="s">
+        <v>311</v>
+      </c>
       <c r="E38" s="140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F38" s="140">
         <v>0</v>
       </c>
-      <c r="H38" s="142" t="s">
+      <c r="G38" s="148" t="s">
+        <v>307</v>
+      </c>
+      <c r="I38" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="J38" s="140" t="s">
+        <v>284</v>
+      </c>
+      <c r="K38" s="144"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="140">
+        <v>5</v>
+      </c>
+      <c r="N38" s="140">
+        <v>1</v>
+      </c>
+      <c r="O38" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="142" t="s">
         <v>272</v>
-      </c>
-      <c r="I38" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="J38" s="203"/>
-      <c r="K38" s="203"/>
-      <c r="L38" s="140">
-        <v>2</v>
-      </c>
-      <c r="M38" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="142" t="s">
-        <v>273</v>
       </c>
       <c r="B39" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="203"/>
-      <c r="D39" s="203"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E39" s="140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" s="140">
         <v>0</v>
       </c>
-      <c r="H39" s="142" t="s">
+      <c r="G39" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I39" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="J39" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="140">
+        <v>6</v>
+      </c>
+      <c r="N39" s="140">
+        <v>1</v>
+      </c>
+      <c r="O39" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="I39" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="J39" s="203"/>
-      <c r="K39" s="203"/>
-      <c r="L39" s="140">
-        <v>3</v>
-      </c>
-      <c r="M39" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="142" t="s">
-        <v>273</v>
-      </c>
-      <c r="B40" s="141" t="s">
+      <c r="B40" s="140" t="s">
         <v>251</v>
       </c>
-      <c r="C40" s="204"/>
-      <c r="D40" s="204"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E40" s="140">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40" s="140">
         <v>0</v>
       </c>
-      <c r="H40" s="142" t="s">
+      <c r="G40" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I40" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="J40" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="K40" s="144"/>
+      <c r="L40" s="144"/>
+      <c r="M40" s="140">
+        <v>7</v>
+      </c>
+      <c r="N40" s="140">
+        <v>1</v>
+      </c>
+      <c r="O40" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="I40" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="J40" s="203"/>
-      <c r="K40" s="203"/>
-      <c r="L40" s="140">
-        <v>4</v>
-      </c>
-      <c r="M40" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="142" t="s">
-        <v>274</v>
-      </c>
       <c r="B41" s="140" t="s">
-        <v>252</v>
-      </c>
-      <c r="C41" s="203"/>
-      <c r="D41" s="203"/>
+        <v>232</v>
+      </c>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E41" s="140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" s="140">
         <v>0</v>
       </c>
-      <c r="H41" s="142" t="s">
+      <c r="G41" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I41" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="J41" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="K41" s="144"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="140">
+        <v>8</v>
+      </c>
+      <c r="N41" s="140">
+        <v>1</v>
+      </c>
+      <c r="O41" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="I41" s="140" t="s">
-        <v>286</v>
-      </c>
-      <c r="J41" s="203"/>
-      <c r="K41" s="203"/>
-      <c r="L41" s="140">
-        <v>5</v>
-      </c>
-      <c r="M41" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="142" t="s">
-        <v>274</v>
-      </c>
       <c r="B42" s="140" t="s">
-        <v>253</v>
-      </c>
-      <c r="C42" s="203"/>
-      <c r="D42" s="203"/>
+        <v>254</v>
+      </c>
+      <c r="C42" s="144"/>
+      <c r="D42" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E42" s="140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="140">
         <v>0</v>
       </c>
-      <c r="H42" s="142" t="s">
+      <c r="G42" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I42" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="J42" s="140" t="s">
+        <v>244</v>
+      </c>
+      <c r="K42" s="144"/>
+      <c r="L42" s="144"/>
+      <c r="M42" s="140">
+        <v>9</v>
+      </c>
+      <c r="N42" s="140">
+        <v>1</v>
+      </c>
+      <c r="O42" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="I42" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="J42" s="203"/>
-      <c r="K42" s="203"/>
-      <c r="L42" s="140">
-        <v>6</v>
-      </c>
-      <c r="M42" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="142" t="s">
-        <v>274</v>
-      </c>
       <c r="B43" s="140" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="203"/>
-      <c r="D43" s="203"/>
+        <v>253</v>
+      </c>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E43" s="140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F43" s="140">
         <v>0</v>
       </c>
-      <c r="H43" s="142" t="s">
+      <c r="G43" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I43" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="J43" s="140" t="s">
+        <v>308</v>
+      </c>
+      <c r="K43" s="144"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="140">
+        <v>11</v>
+      </c>
+      <c r="N43" s="140">
+        <v>1</v>
+      </c>
+      <c r="O43" s="144" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="I43" s="140" t="s">
-        <v>244</v>
-      </c>
-      <c r="J43" s="203"/>
-      <c r="K43" s="203"/>
-      <c r="L43" s="140">
-        <v>7</v>
-      </c>
-      <c r="M43" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="142" t="s">
-        <v>274</v>
-      </c>
       <c r="B44" s="140" t="s">
-        <v>256</v>
-      </c>
-      <c r="C44" s="203"/>
-      <c r="D44" s="203"/>
+        <v>233</v>
+      </c>
+      <c r="C44" s="144"/>
+      <c r="D44" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E44" s="140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F44" s="140">
         <v>0</v>
       </c>
-      <c r="H44" s="142" t="s">
-        <v>272</v>
-      </c>
-      <c r="I44" s="140" t="s">
+      <c r="G44" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I44" s="142" t="s">
+        <v>271</v>
+      </c>
+      <c r="J44" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="J44" s="203"/>
-      <c r="K44" s="203"/>
-      <c r="L44" s="140">
-        <v>8</v>
-      </c>
+      <c r="K44" s="144"/>
+      <c r="L44" s="144"/>
       <c r="M44" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="140">
+        <v>1</v>
+      </c>
+      <c r="O44" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B45" s="140" t="s">
-        <v>255</v>
-      </c>
-      <c r="C45" s="203"/>
-      <c r="D45" s="203"/>
+        <v>252</v>
+      </c>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E45" s="140">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" s="140">
         <v>0</v>
       </c>
-      <c r="H45" s="142" t="s">
+      <c r="G45" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I45" s="142" t="s">
+        <v>271</v>
+      </c>
+      <c r="J45" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="140">
+        <v>2</v>
+      </c>
+      <c r="N45" s="140">
+        <v>1</v>
+      </c>
+      <c r="O45" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="I45" s="140" t="s">
-        <v>246</v>
-      </c>
-      <c r="J45" s="203"/>
-      <c r="K45" s="203"/>
-      <c r="L45" s="140">
-        <v>9</v>
-      </c>
-      <c r="M45" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="142" t="s">
-        <v>274</v>
-      </c>
       <c r="B46" s="140" t="s">
-        <v>233</v>
-      </c>
-      <c r="C46" s="203"/>
-      <c r="D46" s="203"/>
+        <v>308</v>
+      </c>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144" t="s">
+        <v>311</v>
+      </c>
       <c r="E46" s="140">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F46" s="140">
         <v>0</v>
       </c>
-      <c r="H46" s="142" t="s">
-        <v>272</v>
-      </c>
-      <c r="I46" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="J46" s="203"/>
-      <c r="K46" s="203"/>
-      <c r="L46" s="140">
-        <v>10</v>
-      </c>
+      <c r="G46" s="148" t="s">
+        <v>307</v>
+      </c>
+      <c r="I46" s="142" t="s">
+        <v>271</v>
+      </c>
+      <c r="J46" s="140" t="s">
+        <v>247</v>
+      </c>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
       <c r="M46" s="140">
+        <v>3</v>
+      </c>
+      <c r="N46" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O46" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" s="140" t="s">
-        <v>254</v>
-      </c>
-      <c r="C47" s="203"/>
-      <c r="D47" s="203"/>
+        <v>255</v>
+      </c>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E47" s="140">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F47" s="140">
         <v>0</v>
       </c>
-      <c r="H47" s="142" t="s">
-        <v>272</v>
-      </c>
-      <c r="I47" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="J47" s="203"/>
-      <c r="K47" s="203"/>
-      <c r="L47" s="140">
-        <v>11</v>
-      </c>
+      <c r="G47" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I47" s="142" t="s">
+        <v>271</v>
+      </c>
+      <c r="J47" s="140" t="s">
+        <v>248</v>
+      </c>
+      <c r="K47" s="144"/>
+      <c r="L47" s="144"/>
       <c r="M47" s="140">
+        <v>4</v>
+      </c>
+      <c r="N47" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O47" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B48" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
+        <v>256</v>
+      </c>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E48" s="140">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F48" s="140">
         <v>0</v>
       </c>
-      <c r="H48" s="142" t="s">
+      <c r="G48" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I48" s="142" t="s">
+        <v>271</v>
+      </c>
+      <c r="J48" s="141" t="s">
+        <v>249</v>
+      </c>
+      <c r="K48" s="145"/>
+      <c r="L48" s="145"/>
+      <c r="M48" s="140">
+        <v>5</v>
+      </c>
+      <c r="N48" s="140">
+        <v>1</v>
+      </c>
+      <c r="O48" s="144" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="142" t="s">
         <v>273</v>
       </c>
-      <c r="I48" s="140" t="s">
-        <v>247</v>
-      </c>
-      <c r="J48" s="203"/>
-      <c r="K48" s="203"/>
-      <c r="L48" s="140">
-        <v>1</v>
-      </c>
-      <c r="M48" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="142" t="s">
-        <v>274</v>
-      </c>
       <c r="B49" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="C49" s="203"/>
-      <c r="D49" s="203"/>
+        <v>232</v>
+      </c>
+      <c r="C49" s="144"/>
+      <c r="D49" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E49" s="140">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F49" s="140">
         <v>0</v>
       </c>
-      <c r="H49" s="142" t="s">
-        <v>273</v>
-      </c>
-      <c r="I49" s="140" t="s">
-        <v>248</v>
-      </c>
-      <c r="J49" s="203"/>
-      <c r="K49" s="203"/>
-      <c r="L49" s="140">
-        <v>2</v>
-      </c>
+      <c r="G49" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I49" s="142" t="s">
+        <v>272</v>
+      </c>
+      <c r="J49" s="140" t="s">
+        <v>250</v>
+      </c>
+      <c r="K49" s="144"/>
+      <c r="L49" s="144"/>
       <c r="M49" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="140">
+        <v>1</v>
+      </c>
+      <c r="O49" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B50" s="140" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="203"/>
-      <c r="D50" s="203"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E50" s="140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" s="140">
         <v>0</v>
       </c>
-      <c r="H50" s="142" t="s">
+      <c r="G50" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I50" s="142" t="s">
+        <v>272</v>
+      </c>
+      <c r="J50" s="140" t="s">
+        <v>251</v>
+      </c>
+      <c r="K50" s="144"/>
+      <c r="L50" s="144"/>
+      <c r="M50" s="140">
+        <v>2</v>
+      </c>
+      <c r="N50" s="140">
+        <v>1</v>
+      </c>
+      <c r="O50" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="142" t="s">
         <v>273</v>
-      </c>
-      <c r="I50" s="140" t="s">
-        <v>249</v>
-      </c>
-      <c r="J50" s="203"/>
-      <c r="K50" s="203"/>
-      <c r="L50" s="140">
-        <v>3</v>
-      </c>
-      <c r="M50" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="142" t="s">
-        <v>275</v>
       </c>
       <c r="B51" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="C51" s="203"/>
-      <c r="D51" s="203"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E51" s="140">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F51" s="140">
         <v>0</v>
       </c>
-      <c r="H51" s="142" t="s">
+      <c r="G51" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" s="142" t="s">
+        <v>272</v>
+      </c>
+      <c r="J51" s="140" t="s">
+        <v>232</v>
+      </c>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="140">
+        <v>3</v>
+      </c>
+      <c r="N51" s="140">
+        <v>1</v>
+      </c>
+      <c r="O51" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="142" t="s">
         <v>273</v>
       </c>
-      <c r="I51" s="140" t="s">
-        <v>250</v>
-      </c>
-      <c r="J51" s="203"/>
-      <c r="K51" s="203"/>
-      <c r="L51" s="140">
-        <v>4</v>
-      </c>
-      <c r="M51" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="142" t="s">
-        <v>275</v>
-      </c>
       <c r="B52" s="140" t="s">
-        <v>232</v>
-      </c>
-      <c r="C52" s="203"/>
-      <c r="D52" s="203"/>
+        <v>259</v>
+      </c>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E52" s="140">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F52" s="140">
         <v>0</v>
       </c>
-      <c r="H52" s="142" t="s">
+      <c r="G52" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I52" s="142" t="s">
+        <v>272</v>
+      </c>
+      <c r="J52" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="K52" s="144"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="140">
+        <v>4</v>
+      </c>
+      <c r="N52" s="140">
+        <v>1</v>
+      </c>
+      <c r="O52" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="142" t="s">
         <v>273</v>
       </c>
-      <c r="I52" s="141" t="s">
-        <v>251</v>
-      </c>
-      <c r="J52" s="204"/>
-      <c r="K52" s="204"/>
-      <c r="L52" s="140">
-        <v>5</v>
-      </c>
-      <c r="M52" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="142" t="s">
-        <v>275</v>
-      </c>
       <c r="B53" s="140" t="s">
-        <v>259</v>
-      </c>
-      <c r="C53" s="203"/>
-      <c r="D53" s="203"/>
+        <v>308</v>
+      </c>
+      <c r="C53" s="144"/>
+      <c r="D53" s="144" t="s">
+        <v>311</v>
+      </c>
       <c r="E53" s="140">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F53" s="140">
         <v>0</v>
       </c>
-      <c r="H53" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="I53" s="140" t="s">
-        <v>252</v>
-      </c>
-      <c r="J53" s="203"/>
-      <c r="K53" s="203"/>
-      <c r="L53" s="140">
+      <c r="G53" s="148" t="s">
+        <v>307</v>
+      </c>
+      <c r="I53" s="142" t="s">
+        <v>272</v>
+      </c>
+      <c r="J53" s="140" t="s">
+        <v>253</v>
+      </c>
+      <c r="K53" s="144"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="140">
+        <v>5</v>
+      </c>
+      <c r="N53" s="140">
         <v>1</v>
       </c>
-      <c r="M53" s="140">
+      <c r="O53" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="143" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" s="140" t="s">
+        <v>309</v>
+      </c>
+      <c r="C54" s="144"/>
+      <c r="D54" s="144" t="s">
+        <v>311</v>
+      </c>
+      <c r="E54" s="140">
         <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="B54" s="140" t="s">
-        <v>260</v>
-      </c>
-      <c r="C54" s="203"/>
-      <c r="D54" s="203"/>
-      <c r="E54" s="140">
-        <v>5</v>
       </c>
       <c r="F54" s="140">
         <v>0</v>
       </c>
-      <c r="H54" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="I54" s="140" t="s">
-        <v>253</v>
-      </c>
-      <c r="J54" s="203"/>
-      <c r="K54" s="203"/>
-      <c r="L54" s="140">
-        <v>2</v>
-      </c>
+      <c r="G54" s="148" t="s">
+        <v>307</v>
+      </c>
+      <c r="I54" s="142" t="s">
+        <v>272</v>
+      </c>
+      <c r="J54" s="140" t="s">
+        <v>233</v>
+      </c>
+      <c r="K54" s="144"/>
+      <c r="L54" s="144"/>
       <c r="M54" s="140">
+        <v>6</v>
+      </c>
+      <c r="N54" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O54" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="142" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B55" s="140" t="s">
-        <v>261</v>
-      </c>
-      <c r="C55" s="203"/>
-      <c r="D55" s="203"/>
+        <v>262</v>
+      </c>
+      <c r="C55" s="144"/>
+      <c r="D55" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E55" s="140">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F55" s="140">
         <v>0</v>
       </c>
-      <c r="H55" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="I55" s="140" t="s">
-        <v>232</v>
-      </c>
-      <c r="J55" s="203"/>
-      <c r="K55" s="203"/>
-      <c r="L55" s="140">
-        <v>3</v>
-      </c>
+      <c r="G55" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I55" s="142" t="s">
+        <v>272</v>
+      </c>
+      <c r="J55" s="140" t="s">
+        <v>252</v>
+      </c>
+      <c r="K55" s="144"/>
+      <c r="L55" s="144"/>
       <c r="M55" s="140">
+        <v>7</v>
+      </c>
+      <c r="N55" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O55" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="142" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B56" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="C56" s="203"/>
-      <c r="D56" s="203"/>
+        <v>263</v>
+      </c>
+      <c r="C56" s="144"/>
+      <c r="D56" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E56" s="140">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F56" s="140">
         <v>0</v>
       </c>
-      <c r="H56" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="I56" s="140" t="s">
-        <v>256</v>
-      </c>
-      <c r="J56" s="203"/>
-      <c r="K56" s="203"/>
-      <c r="L56" s="140">
-        <v>4</v>
-      </c>
+      <c r="G56" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I56" s="142" t="s">
+        <v>272</v>
+      </c>
+      <c r="J56" s="140" t="s">
+        <v>308</v>
+      </c>
+      <c r="K56" s="144"/>
+      <c r="L56" s="144"/>
       <c r="M56" s="140">
+        <v>9</v>
+      </c>
+      <c r="N56" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O56" s="144" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="142" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B57" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="C57" s="203"/>
-      <c r="D57" s="203"/>
+        <v>264</v>
+      </c>
+      <c r="C57" s="144"/>
+      <c r="D57" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E57" s="140">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F57" s="140">
         <v>0</v>
       </c>
-      <c r="H57" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="I57" s="140" t="s">
+      <c r="G57" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I57" s="142" t="s">
+        <v>273</v>
+      </c>
+      <c r="J57" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="J57" s="203"/>
-      <c r="K57" s="203"/>
-      <c r="L57" s="140">
-        <v>5</v>
-      </c>
+      <c r="K57" s="144"/>
+      <c r="L57" s="144"/>
       <c r="M57" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="143" t="s">
-        <v>262</v>
-      </c>
-      <c r="B58" s="140"/>
-      <c r="C58" s="203"/>
-      <c r="D58" s="203"/>
+      <c r="N57" s="140">
+        <v>1</v>
+      </c>
+      <c r="O57" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E58" s="140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58" s="140">
         <v>0</v>
       </c>
-      <c r="H58" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="I58" s="140" t="s">
-        <v>233</v>
-      </c>
-      <c r="J58" s="203"/>
-      <c r="K58" s="203"/>
-      <c r="L58" s="140">
-        <v>6</v>
-      </c>
+      <c r="G58" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I58" s="142" t="s">
+        <v>273</v>
+      </c>
+      <c r="J58" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="K58" s="144"/>
+      <c r="L58" s="144"/>
       <c r="M58" s="140">
+        <v>2</v>
+      </c>
+      <c r="N58" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O58" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B59" s="140" t="s">
-        <v>264</v>
-      </c>
-      <c r="C59" s="203"/>
-      <c r="D59" s="203"/>
+        <v>266</v>
+      </c>
+      <c r="C59" s="144"/>
+      <c r="D59" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="E59" s="140">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F59" s="140">
         <v>0</v>
       </c>
-      <c r="H59" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="I59" s="140" t="s">
-        <v>254</v>
-      </c>
-      <c r="J59" s="203"/>
-      <c r="K59" s="203"/>
-      <c r="L59" s="140">
-        <v>7</v>
-      </c>
+      <c r="G59" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="I59" s="142" t="s">
+        <v>273</v>
+      </c>
+      <c r="J59" s="140" t="s">
+        <v>232</v>
+      </c>
+      <c r="K59" s="144"/>
+      <c r="L59" s="144"/>
       <c r="M59" s="140">
+        <v>3</v>
+      </c>
+      <c r="N59" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O59" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B60" s="140" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" s="203"/>
-      <c r="D60" s="203"/>
+        <v>308</v>
+      </c>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144" t="s">
+        <v>311</v>
+      </c>
       <c r="E60" s="140">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F60" s="140">
         <v>0</v>
       </c>
-      <c r="H60" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="I60" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="J60" s="203"/>
-      <c r="K60" s="203"/>
-      <c r="L60" s="140">
-        <v>8</v>
-      </c>
+      <c r="G60" s="148" t="s">
+        <v>307</v>
+      </c>
+      <c r="I60" s="142" t="s">
+        <v>273</v>
+      </c>
+      <c r="J60" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
       <c r="M60" s="140">
+        <v>4</v>
+      </c>
+      <c r="N60" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="B61" s="140" t="s">
-        <v>266</v>
-      </c>
-      <c r="C61" s="203"/>
-      <c r="D61" s="203"/>
-      <c r="E61" s="140">
-        <v>3</v>
-      </c>
-      <c r="F61" s="140">
-        <v>0</v>
-      </c>
-      <c r="H61" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="I61" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="J61" s="203"/>
-      <c r="K61" s="203"/>
-      <c r="L61" s="140">
-        <v>9</v>
-      </c>
+      <c r="O60" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="142" t="s">
+        <v>273</v>
+      </c>
+      <c r="J61" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="K61" s="144"/>
+      <c r="L61" s="144"/>
       <c r="M61" s="140">
+        <v>5</v>
+      </c>
+      <c r="N61" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="B62" s="140" t="s">
-        <v>267</v>
-      </c>
-      <c r="C62" s="203"/>
-      <c r="D62" s="203"/>
-      <c r="E62" s="140">
-        <v>4</v>
-      </c>
-      <c r="F62" s="140">
-        <v>0</v>
-      </c>
-      <c r="H62" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="I62" s="140" t="s">
-        <v>257</v>
-      </c>
-      <c r="J62" s="203"/>
-      <c r="K62" s="203"/>
-      <c r="L62" s="140">
+      <c r="O61" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="142" t="s">
+        <v>273</v>
+      </c>
+      <c r="J62" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="K62" s="144"/>
+      <c r="L62" s="144"/>
+      <c r="M62" s="140">
+        <v>6</v>
+      </c>
+      <c r="N62" s="140">
         <v>1</v>
       </c>
-      <c r="M62" s="140">
+      <c r="O62" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="142" t="s">
+        <v>273</v>
+      </c>
+      <c r="J63" s="140" t="s">
+        <v>308</v>
+      </c>
+      <c r="K63" s="144"/>
+      <c r="L63" s="144"/>
+      <c r="M63" s="140">
+        <v>7</v>
+      </c>
+      <c r="N63" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="B63" s="140" t="s">
-        <v>268</v>
-      </c>
-      <c r="C63" s="203"/>
-      <c r="D63" s="203"/>
-      <c r="E63" s="140">
-        <v>5</v>
-      </c>
-      <c r="F63" s="140">
-        <v>0</v>
-      </c>
-      <c r="H63" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="I63" s="140" t="s">
-        <v>258</v>
-      </c>
-      <c r="J63" s="203"/>
-      <c r="K63" s="203"/>
-      <c r="L63" s="140">
-        <v>2</v>
-      </c>
-      <c r="M63" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="B64" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="C64" s="203"/>
-      <c r="D64" s="203"/>
-      <c r="E64" s="140">
-        <v>6</v>
-      </c>
-      <c r="F64" s="140">
-        <v>0</v>
-      </c>
-      <c r="H64" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="I64" s="140" t="s">
-        <v>232</v>
-      </c>
-      <c r="J64" s="203"/>
-      <c r="K64" s="203"/>
-      <c r="L64" s="140">
-        <v>3</v>
-      </c>
+      <c r="O63" s="144" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="143" t="s">
+        <v>260</v>
+      </c>
+      <c r="J64" s="140" t="s">
+        <v>309</v>
+      </c>
+      <c r="K64" s="144"/>
+      <c r="L64" s="144"/>
       <c r="M64" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="B65" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="C65" s="203"/>
-      <c r="D65" s="203"/>
-      <c r="E65" s="140">
-        <v>7</v>
-      </c>
-      <c r="F65" s="140">
-        <v>0</v>
-      </c>
-      <c r="H65" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="I65" s="140" t="s">
-        <v>259</v>
-      </c>
-      <c r="J65" s="203"/>
-      <c r="K65" s="203"/>
-      <c r="L65" s="140">
-        <v>4</v>
-      </c>
+      <c r="N64" s="140">
+        <v>1</v>
+      </c>
+      <c r="O64" s="144" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="9:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="J65" s="140" t="s">
+        <v>262</v>
+      </c>
+      <c r="K65" s="144"/>
+      <c r="L65" s="144"/>
       <c r="M65" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H66" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="I66" s="140" t="s">
-        <v>260</v>
-      </c>
-      <c r="J66" s="203"/>
-      <c r="K66" s="203"/>
-      <c r="L66" s="140">
+      <c r="N65" s="140">
+        <v>1</v>
+      </c>
+      <c r="O65" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I66" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="J66" s="140" t="s">
+        <v>263</v>
+      </c>
+      <c r="K66" s="144"/>
+      <c r="L66" s="144"/>
+      <c r="M66" s="140">
+        <v>2</v>
+      </c>
+      <c r="N66" s="140">
+        <v>1</v>
+      </c>
+      <c r="O66" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I67" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="J67" s="140" t="s">
+        <v>264</v>
+      </c>
+      <c r="K67" s="144"/>
+      <c r="L67" s="144"/>
+      <c r="M67" s="140">
+        <v>3</v>
+      </c>
+      <c r="N67" s="140">
+        <v>1</v>
+      </c>
+      <c r="O67" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I68" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="J68" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="K68" s="144"/>
+      <c r="L68" s="144"/>
+      <c r="M68" s="140">
+        <v>4</v>
+      </c>
+      <c r="N68" s="140">
+        <v>1</v>
+      </c>
+      <c r="O68" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I69" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="J69" s="140" t="s">
+        <v>266</v>
+      </c>
+      <c r="K69" s="144"/>
+      <c r="L69" s="144"/>
+      <c r="M69" s="140">
         <v>5</v>
       </c>
-      <c r="M66" s="140">
+      <c r="N69" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H67" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="I67" s="140" t="s">
+      <c r="O69" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I70" s="142" t="s">
         <v>261</v>
       </c>
-      <c r="J67" s="203"/>
-      <c r="K67" s="203"/>
-      <c r="L67" s="140">
+      <c r="J70" s="140" t="s">
+        <v>308</v>
+      </c>
+      <c r="K70" s="144"/>
+      <c r="L70" s="144"/>
+      <c r="M70" s="140">
         <v>6</v>
       </c>
-      <c r="M67" s="140">
+      <c r="N70" s="140">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H68" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="I68" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="J68" s="203"/>
-      <c r="K68" s="203"/>
-      <c r="L68" s="140">
-        <v>7</v>
-      </c>
-      <c r="M68" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H69" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="I69" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="J69" s="203"/>
-      <c r="K69" s="203"/>
-      <c r="L69" s="140">
-        <v>8</v>
-      </c>
-      <c r="M69" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H70" s="143" t="s">
-        <v>262</v>
-      </c>
-      <c r="I70" s="140"/>
-      <c r="J70" s="203"/>
-      <c r="K70" s="203"/>
-      <c r="L70" s="140">
-        <v>1</v>
-      </c>
-      <c r="M70" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H71" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="I71" s="140" t="s">
-        <v>264</v>
-      </c>
-      <c r="J71" s="203"/>
-      <c r="K71" s="203"/>
-      <c r="L71" s="140">
-        <v>1</v>
-      </c>
-      <c r="M71" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H72" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="I72" s="140" t="s">
-        <v>265</v>
-      </c>
-      <c r="J72" s="203"/>
-      <c r="K72" s="203"/>
-      <c r="L72" s="140">
-        <v>2</v>
-      </c>
-      <c r="M72" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H73" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="I73" s="140" t="s">
-        <v>266</v>
-      </c>
-      <c r="J73" s="203"/>
-      <c r="K73" s="203"/>
-      <c r="L73" s="140">
-        <v>3</v>
-      </c>
-      <c r="M73" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H74" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="I74" s="140" t="s">
-        <v>267</v>
-      </c>
-      <c r="J74" s="203"/>
-      <c r="K74" s="203"/>
-      <c r="L74" s="140">
-        <v>4</v>
-      </c>
-      <c r="M74" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H75" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="I75" s="140" t="s">
-        <v>268</v>
-      </c>
-      <c r="J75" s="203"/>
-      <c r="K75" s="203"/>
-      <c r="L75" s="140">
-        <v>5</v>
-      </c>
-      <c r="M75" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H76" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="I76" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="J76" s="203"/>
-      <c r="K76" s="203"/>
-      <c r="L76" s="140">
-        <v>6</v>
-      </c>
-      <c r="M76" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H77" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="I77" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="J77" s="203"/>
-      <c r="K77" s="203"/>
-      <c r="L77" s="140">
-        <v>7</v>
-      </c>
-      <c r="M77" s="140">
-        <v>1</v>
+      <c r="O70" s="144" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>